--- a/Diagrama_de_gantt.xlsx
+++ b/Diagrama_de_gantt.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -372,6 +372,9 @@
   <si>
     <t>Validar los datos y encriptarlos</t>
   </si>
+  <si>
+    <t>Eric</t>
+  </si>
 </sst>
 </file>
 
@@ -678,7 +681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="55">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,6 +987,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -1322,7 +1331,7 @@
     <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1627,6 +1636,16 @@
     <xf numFmtId="167" fontId="0" fillId="50" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1645,15 +1664,14 @@
     <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2141,7 +2159,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,8 +2463,8 @@
   <dimension ref="A1:BZW46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2495,95 +2513,95 @@
         <v>2</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="107">
+      <c r="D3" s="108"/>
+      <c r="E3" s="111">
         <v>44839</v>
       </c>
-      <c r="F3" s="108"/>
+      <c r="F3" s="112"/>
     </row>
     <row r="4" spans="1:2051" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="108"/>
       <c r="E4"/>
-      <c r="I4" s="109">
+      <c r="I4" s="113">
         <v>44839</v>
       </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="109">
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="113">
         <v>44840</v>
       </c>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="111"/>
-      <c r="W4" s="109">
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="115"/>
+      <c r="W4" s="113">
         <v>44841</v>
       </c>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="106"/>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="106"/>
-      <c r="BG4" s="106"/>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="110"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="110"/>
     </row>
     <row r="5" spans="1:2051" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
@@ -4828,32 +4846,32 @@
       <c r="D8" s="39"/>
       <c r="E8" s="47"/>
       <c r="F8" s="48"/>
-      <c r="G8" s="115" t="str">
+      <c r="G8" s="106" t="str">
         <f t="shared" ref="G8:H29" si="0">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
       <c r="AD8" s="57"/>
       <c r="AE8" s="57"/>
       <c r="AF8" s="57"/>
@@ -5292,7 +5310,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D14" s="40">
         <v>0</v>
@@ -5376,32 +5394,32 @@
       <c r="D15" s="41"/>
       <c r="E15" s="49"/>
       <c r="F15" s="50"/>
-      <c r="G15" s="115" t="str">
+      <c r="G15" s="106" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="115"/>
-      <c r="W15" s="115"/>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="115"/>
-      <c r="Z15" s="115"/>
-      <c r="AA15" s="115"/>
-      <c r="AB15" s="115"/>
-      <c r="AC15" s="115"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="106"/>
       <c r="AD15" s="57"/>
       <c r="AE15" s="57"/>
       <c r="AF15" s="57"/>
@@ -5681,7 +5699,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D19" s="42">
         <v>0</v>
@@ -5714,7 +5732,7 @@
       <c r="W19" s="80"/>
       <c r="X19" s="80"/>
       <c r="Y19" s="81"/>
-      <c r="Z19" s="80"/>
+      <c r="Z19" s="116"/>
       <c r="AA19" s="80"/>
       <c r="AB19" s="80"/>
       <c r="AC19" s="80"/>
@@ -5765,32 +5783,32 @@
       <c r="D20" s="43"/>
       <c r="E20" s="51"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="115" t="str">
+      <c r="G20" s="106" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="115"/>
-      <c r="AC20" s="115"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="106"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
+      <c r="S20" s="106"/>
+      <c r="T20" s="106"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
       <c r="AD20" s="57"/>
       <c r="AE20" s="57"/>
       <c r="AF20" s="57"/>
@@ -5991,7 +6009,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="95" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D23" s="44">
         <v>0</v>
@@ -6012,7 +6030,7 @@
       <c r="K23" s="80"/>
       <c r="L23" s="80"/>
       <c r="M23" s="80"/>
-      <c r="N23" s="98"/>
+      <c r="N23" s="80"/>
       <c r="O23" s="80"/>
       <c r="P23" s="80"/>
       <c r="Q23" s="80"/>
@@ -6024,7 +6042,7 @@
       <c r="W23" s="80"/>
       <c r="X23" s="80"/>
       <c r="Y23" s="80"/>
-      <c r="Z23" s="80"/>
+      <c r="Z23" s="116"/>
       <c r="AA23" s="80"/>
       <c r="AB23" s="80"/>
       <c r="AC23" s="80"/>
@@ -6075,32 +6093,32 @@
       <c r="D24" s="45"/>
       <c r="E24" s="53"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="115" t="str">
+      <c r="G24" s="106" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="115"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="115"/>
-      <c r="Y24" s="115"/>
-      <c r="Z24" s="115"/>
-      <c r="AA24" s="115"/>
-      <c r="AB24" s="115"/>
-      <c r="AC24" s="115"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
       <c r="AD24" s="57"/>
       <c r="AE24" s="57"/>
       <c r="AF24" s="57"/>
@@ -6301,7 +6319,7 @@
         <v>44</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D27" s="46">
         <v>0</v>
@@ -6323,7 +6341,7 @@
       <c r="L27" s="80"/>
       <c r="M27" s="80"/>
       <c r="N27" s="80"/>
-      <c r="O27" s="89"/>
+      <c r="O27" s="80"/>
       <c r="P27" s="80"/>
       <c r="Q27" s="80"/>
       <c r="R27" s="80"/>
@@ -6334,7 +6352,7 @@
       <c r="W27" s="80"/>
       <c r="X27" s="80"/>
       <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
+      <c r="Z27" s="116"/>
       <c r="AA27" s="80"/>
       <c r="AB27" s="80"/>
       <c r="AC27" s="80"/>
@@ -6385,32 +6403,32 @@
       <c r="D28" s="67"/>
       <c r="E28" s="68"/>
       <c r="F28" s="69"/>
-      <c r="G28" s="115" t="str">
+      <c r="G28" s="106" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
-      <c r="W28" s="115"/>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="115"/>
-      <c r="Z28" s="115"/>
-      <c r="AA28" s="115"/>
-      <c r="AB28" s="115"/>
-      <c r="AC28" s="115"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="106"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="106"/>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="106"/>
       <c r="AD28" s="57"/>
       <c r="AE28" s="57"/>
       <c r="AF28" s="57"/>
@@ -6742,7 +6760,7 @@
         <v>44</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D35" s="64">
         <v>0</v>
@@ -6764,7 +6782,7 @@
       <c r="L35" s="83"/>
       <c r="M35" s="83"/>
       <c r="N35" s="83"/>
-      <c r="O35" s="94"/>
+      <c r="O35" s="118"/>
       <c r="P35" s="83"/>
       <c r="Q35" s="83"/>
       <c r="R35" s="83"/>
@@ -6775,7 +6793,7 @@
       <c r="W35" s="83"/>
       <c r="X35" s="83"/>
       <c r="Y35" s="83"/>
-      <c r="Z35" s="83"/>
+      <c r="Z35" s="116"/>
       <c r="AA35" s="83"/>
       <c r="AB35" s="83"/>
       <c r="AC35" s="83"/>
@@ -6788,32 +6806,32 @@
       <c r="D36" s="73"/>
       <c r="E36" s="74"/>
       <c r="F36" s="75"/>
-      <c r="G36" s="115" t="str">
+      <c r="G36" s="106" t="str">
         <f t="shared" ref="G36:H46" si="2">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="115"/>
-      <c r="P36" s="115"/>
-      <c r="Q36" s="115"/>
-      <c r="R36" s="115"/>
-      <c r="S36" s="115"/>
-      <c r="T36" s="115"/>
-      <c r="U36" s="115"/>
-      <c r="V36" s="115"/>
-      <c r="W36" s="115"/>
-      <c r="X36" s="115"/>
-      <c r="Y36" s="115"/>
-      <c r="Z36" s="115"/>
-      <c r="AA36" s="115"/>
-      <c r="AB36" s="115"/>
-      <c r="AC36" s="115"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="106"/>
+      <c r="T36" s="106"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="106"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="106"/>
+      <c r="Y36" s="106"/>
+      <c r="Z36" s="106"/>
+      <c r="AA36" s="106"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="106"/>
     </row>
     <row r="37" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="87" t="s">
@@ -7118,7 +7136,7 @@
         <v>67</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D44" s="70">
         <v>0</v>
@@ -7136,9 +7154,9 @@
       </c>
       <c r="I44" s="83"/>
       <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
+      <c r="K44" s="117"/>
       <c r="L44" s="83"/>
-      <c r="M44" s="88"/>
+      <c r="M44" s="80"/>
       <c r="N44" s="83"/>
       <c r="O44" s="80"/>
       <c r="P44" s="83"/>
@@ -7244,17 +7262,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G36:AC36"/>
-    <mergeCell ref="G24:AC24"/>
-    <mergeCell ref="G20:AC20"/>
-    <mergeCell ref="G15:AC15"/>
-    <mergeCell ref="G8:AC8"/>
-    <mergeCell ref="G28:AC28"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7262,6 +7269,17 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="G36:AC36"/>
+    <mergeCell ref="G24:AC24"/>
+    <mergeCell ref="G20:AC20"/>
+    <mergeCell ref="G15:AC15"/>
+    <mergeCell ref="G8:AC8"/>
+    <mergeCell ref="G28:AC28"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D27">
     <cfRule type="dataBar" priority="38">

--- a/Diagrama_de_gantt.xlsx
+++ b/Diagrama_de_gantt.xlsx
@@ -391,7 +391,7 @@
     <numFmt numFmtId="169" formatCode="d"/>
     <numFmt numFmtId="170" formatCode="ddd\,\ d/m/yyyy"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,8 +680,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="55">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,12 +943,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,7 +1332,7 @@
     <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1510,40 +1511,40 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="47" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="47" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="49" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="50" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="48" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="50" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="50" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="51" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="51" borderId="2" xfId="11" applyFill="1">
+    <xf numFmtId="167" fontId="0" fillId="50" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="51" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="51" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="51" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="50" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
@@ -1576,64 +1577,79 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="2" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="52" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="39" fillId="52" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="46" borderId="2" xfId="10" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="49" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="53" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="53" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="39" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="53" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="48" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="46" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="52" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="47" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="50" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="51" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="45" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1663,15 +1679,6 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="54" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="44" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2463,8 +2470,8 @@
   <dimension ref="A1:BZW46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
+      <pane ySplit="6" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2513,95 +2520,95 @@
         <v>2</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="111">
+      <c r="D3" s="113"/>
+      <c r="E3" s="116">
         <v>44839</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="117"/>
     </row>
     <row r="4" spans="1:2051" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="108"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4"/>
-      <c r="I4" s="113">
+      <c r="I4" s="118">
         <v>44839</v>
       </c>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="113">
-        <v>44840</v>
-      </c>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="113">
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="118">
         <v>44841</v>
       </c>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="114"/>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="114"/>
-      <c r="AC4" s="114"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BE4" s="110"/>
-      <c r="BF4" s="110"/>
-      <c r="BG4" s="110"/>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
-      <c r="BJ4" s="110"/>
-      <c r="BK4" s="110"/>
-      <c r="BL4" s="110"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="118">
+        <v>44843</v>
+      </c>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="115"/>
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="115"/>
+      <c r="AJ4" s="115"/>
+      <c r="AK4" s="115"/>
+      <c r="AL4" s="115"/>
+      <c r="AM4" s="115"/>
+      <c r="AN4" s="115"/>
+      <c r="AO4" s="115"/>
+      <c r="AP4" s="115"/>
+      <c r="AQ4" s="115"/>
+      <c r="AR4" s="115"/>
+      <c r="AS4" s="115"/>
+      <c r="AT4" s="115"/>
+      <c r="AU4" s="115"/>
+      <c r="AV4" s="115"/>
+      <c r="AW4" s="115"/>
+      <c r="AX4" s="115"/>
+      <c r="AY4" s="115"/>
+      <c r="AZ4" s="115"/>
+      <c r="BA4" s="115"/>
+      <c r="BB4" s="115"/>
+      <c r="BC4" s="115"/>
+      <c r="BD4" s="115"/>
+      <c r="BE4" s="115"/>
+      <c r="BF4" s="115"/>
+      <c r="BG4" s="115"/>
+      <c r="BH4" s="115"/>
+      <c r="BI4" s="115"/>
+      <c r="BJ4" s="115"/>
+      <c r="BK4" s="115"/>
+      <c r="BL4" s="115"/>
     </row>
     <row r="5" spans="1:2051" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
@@ -4846,32 +4853,32 @@
       <c r="D8" s="39"/>
       <c r="E8" s="47"/>
       <c r="F8" s="48"/>
-      <c r="G8" s="106" t="str">
+      <c r="G8" s="111" t="str">
         <f t="shared" ref="G8:H29" si="0">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
       <c r="AD8" s="57"/>
       <c r="AE8" s="57"/>
       <c r="AF8" s="57"/>
@@ -5079,7 +5086,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="40">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E11" s="63">
         <v>44870</v>
@@ -5096,8 +5103,8 @@
       <c r="J11" s="80"/>
       <c r="K11" s="80"/>
       <c r="L11" s="89"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
       <c r="O11" s="80"/>
       <c r="P11" s="80"/>
       <c r="Q11" s="80"/>
@@ -5158,25 +5165,25 @@
         <v>46</v>
       </c>
       <c r="D12" s="40">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E12" s="63">
         <v>44870</v>
       </c>
       <c r="F12" s="63">
-        <v>44870</v>
+        <v>44874</v>
       </c>
       <c r="G12" s="79"/>
       <c r="H12" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" s="80"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
       <c r="L12" s="80"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="80"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="93"/>
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="80"/>
@@ -5187,7 +5194,7 @@
       <c r="V12" s="80"/>
       <c r="W12" s="80"/>
       <c r="X12" s="80"/>
-      <c r="Y12" s="81"/>
+      <c r="Y12" s="107"/>
       <c r="Z12" s="80"/>
       <c r="AA12" s="80"/>
       <c r="AB12" s="80"/>
@@ -5243,7 +5250,7 @@
         <v>44870</v>
       </c>
       <c r="F13" s="63">
-        <v>44870</v>
+        <v>44874</v>
       </c>
       <c r="G13" s="79"/>
       <c r="H13" s="79"/>
@@ -5251,8 +5258,8 @@
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
       <c r="L13" s="80"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="80"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
       <c r="O13" s="80"/>
       <c r="P13" s="80"/>
       <c r="Q13" s="80"/>
@@ -5263,7 +5270,7 @@
       <c r="V13" s="80"/>
       <c r="W13" s="80"/>
       <c r="X13" s="80"/>
-      <c r="Y13" s="81"/>
+      <c r="Y13" s="107"/>
       <c r="Z13" s="80"/>
       <c r="AA13" s="80"/>
       <c r="AB13" s="80"/>
@@ -5313,13 +5320,13 @@
         <v>75</v>
       </c>
       <c r="D14" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="63">
-        <v>44870</v>
+        <v>44874</v>
       </c>
       <c r="F14" s="63">
-        <v>44870</v>
+        <v>44874</v>
       </c>
       <c r="G14" s="79"/>
       <c r="H14" s="79">
@@ -5332,7 +5339,7 @@
       <c r="L14" s="80"/>
       <c r="M14" s="80"/>
       <c r="N14" s="80"/>
-      <c r="O14" s="98"/>
+      <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="80"/>
       <c r="R14" s="80"/>
@@ -5343,7 +5350,7 @@
       <c r="W14" s="80"/>
       <c r="X14" s="80"/>
       <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
+      <c r="Z14" s="106"/>
       <c r="AA14" s="80"/>
       <c r="AB14" s="80"/>
       <c r="AC14" s="80"/>
@@ -5394,32 +5401,32 @@
       <c r="D15" s="41"/>
       <c r="E15" s="49"/>
       <c r="F15" s="50"/>
-      <c r="G15" s="106" t="str">
+      <c r="G15" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="106"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
       <c r="AD15" s="57"/>
       <c r="AE15" s="57"/>
       <c r="AF15" s="57"/>
@@ -5467,10 +5474,10 @@
       <c r="D16" s="42">
         <v>1</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="98">
         <v>44870</v>
       </c>
-      <c r="F16" s="101">
+      <c r="F16" s="98">
         <v>44870</v>
       </c>
       <c r="G16" s="79"/>
@@ -5481,7 +5488,7 @@
       <c r="I16" s="80"/>
       <c r="J16" s="80"/>
       <c r="K16" s="94"/>
-      <c r="L16" s="80"/>
+      <c r="L16" s="93"/>
       <c r="M16" s="80"/>
       <c r="N16" s="80"/>
       <c r="O16" s="80"/>
@@ -5546,10 +5553,10 @@
       <c r="D17" s="42">
         <v>1</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E17" s="98">
         <v>44870</v>
       </c>
-      <c r="F17" s="101">
+      <c r="F17" s="98">
         <v>44870</v>
       </c>
       <c r="G17" s="79"/>
@@ -5559,8 +5566,8 @@
       </c>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="80"/>
       <c r="N17" s="80"/>
       <c r="O17" s="80"/>
@@ -5625,34 +5632,34 @@
       <c r="D18" s="42">
         <v>1</v>
       </c>
-      <c r="E18" s="101">
-        <v>44870</v>
-      </c>
-      <c r="F18" s="101">
-        <v>44870</v>
+      <c r="E18" s="98">
+        <v>44872</v>
+      </c>
+      <c r="F18" s="98">
+        <v>44874</v>
       </c>
       <c r="G18" s="79"/>
       <c r="H18" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="93"/>
+      <c r="L18" s="80"/>
       <c r="M18" s="80"/>
       <c r="N18" s="80"/>
       <c r="O18" s="80"/>
       <c r="P18" s="80"/>
       <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
       <c r="T18" s="80"/>
       <c r="U18" s="80"/>
       <c r="V18" s="80"/>
       <c r="W18" s="80"/>
       <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
+      <c r="Y18" s="93"/>
       <c r="Z18" s="80"/>
       <c r="AA18" s="80"/>
       <c r="AB18" s="80"/>
@@ -5702,13 +5709,13 @@
         <v>75</v>
       </c>
       <c r="D19" s="42">
-        <v>0</v>
-      </c>
-      <c r="E19" s="101">
-        <v>44870</v>
-      </c>
-      <c r="F19" s="101">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="98">
+        <v>44874</v>
+      </c>
+      <c r="F19" s="98">
+        <v>44874</v>
       </c>
       <c r="G19" s="79"/>
       <c r="H19" s="79">
@@ -5721,7 +5728,7 @@
       <c r="L19" s="80"/>
       <c r="M19" s="80"/>
       <c r="N19" s="80"/>
-      <c r="O19" s="88"/>
+      <c r="O19" s="80"/>
       <c r="P19" s="80"/>
       <c r="Q19" s="80"/>
       <c r="R19" s="80"/>
@@ -5732,7 +5739,7 @@
       <c r="W19" s="80"/>
       <c r="X19" s="80"/>
       <c r="Y19" s="81"/>
-      <c r="Z19" s="116"/>
+      <c r="Z19" s="103"/>
       <c r="AA19" s="80"/>
       <c r="AB19" s="80"/>
       <c r="AC19" s="80"/>
@@ -5783,32 +5790,32 @@
       <c r="D20" s="43"/>
       <c r="E20" s="51"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="106" t="str">
+      <c r="G20" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="111"/>
       <c r="AD20" s="57"/>
       <c r="AE20" s="57"/>
       <c r="AF20" s="57"/>
@@ -5856,11 +5863,11 @@
       <c r="D21" s="44">
         <v>1</v>
       </c>
-      <c r="E21" s="102">
-        <v>44870</v>
-      </c>
-      <c r="F21" s="102">
-        <v>44870</v>
+      <c r="E21" s="99">
+        <v>44872</v>
+      </c>
+      <c r="F21" s="99">
+        <v>44872</v>
       </c>
       <c r="G21" s="79"/>
       <c r="H21" s="79">
@@ -5871,12 +5878,12 @@
       <c r="J21" s="80"/>
       <c r="K21" s="80"/>
       <c r="L21" s="80"/>
-      <c r="M21" s="88"/>
+      <c r="M21" s="80"/>
       <c r="N21" s="80"/>
       <c r="O21" s="80"/>
       <c r="P21" s="80"/>
       <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
+      <c r="R21" s="88"/>
       <c r="S21" s="80"/>
       <c r="T21" s="80"/>
       <c r="U21" s="80"/>
@@ -5935,11 +5942,11 @@
       <c r="D22" s="44">
         <v>1</v>
       </c>
-      <c r="E22" s="102">
-        <v>44870</v>
-      </c>
-      <c r="F22" s="102">
-        <v>44870</v>
+      <c r="E22" s="99">
+        <v>44872</v>
+      </c>
+      <c r="F22" s="99">
+        <v>44872</v>
       </c>
       <c r="G22" s="79"/>
       <c r="H22" s="79">
@@ -5950,12 +5957,12 @@
       <c r="J22" s="80"/>
       <c r="K22" s="80"/>
       <c r="L22" s="80"/>
-      <c r="M22" s="88"/>
+      <c r="M22" s="80"/>
       <c r="N22" s="80"/>
       <c r="O22" s="80"/>
       <c r="P22" s="80"/>
       <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
+      <c r="R22" s="88"/>
       <c r="S22" s="80"/>
       <c r="T22" s="80"/>
       <c r="U22" s="80"/>
@@ -6012,13 +6019,13 @@
         <v>75</v>
       </c>
       <c r="D23" s="44">
-        <v>0</v>
-      </c>
-      <c r="E23" s="102">
-        <v>44870</v>
-      </c>
-      <c r="F23" s="102">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="99">
+        <v>44874</v>
+      </c>
+      <c r="F23" s="99">
+        <v>44874</v>
       </c>
       <c r="G23" s="79"/>
       <c r="H23" s="79">
@@ -6042,7 +6049,7 @@
       <c r="W23" s="80"/>
       <c r="X23" s="80"/>
       <c r="Y23" s="80"/>
-      <c r="Z23" s="116"/>
+      <c r="Z23" s="103"/>
       <c r="AA23" s="80"/>
       <c r="AB23" s="80"/>
       <c r="AC23" s="80"/>
@@ -6093,32 +6100,32 @@
       <c r="D24" s="45"/>
       <c r="E24" s="53"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="106" t="str">
+      <c r="G24" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
       <c r="AD24" s="57"/>
       <c r="AE24" s="57"/>
       <c r="AF24" s="57"/>
@@ -6164,13 +6171,13 @@
         <v>47</v>
       </c>
       <c r="D25" s="46">
-        <v>0</v>
-      </c>
-      <c r="E25" s="103">
-        <v>44870</v>
-      </c>
-      <c r="F25" s="103">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E25" s="100">
+        <v>44872</v>
+      </c>
+      <c r="F25" s="100">
+        <v>44872</v>
       </c>
       <c r="G25" s="79"/>
       <c r="H25" s="79">
@@ -6182,11 +6189,11 @@
       <c r="K25" s="80"/>
       <c r="L25" s="80"/>
       <c r="M25" s="80"/>
-      <c r="N25" s="88"/>
+      <c r="N25" s="80"/>
       <c r="O25" s="80"/>
       <c r="P25" s="80"/>
       <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
+      <c r="R25" s="88"/>
       <c r="S25" s="80"/>
       <c r="T25" s="80"/>
       <c r="U25" s="80"/>
@@ -6243,13 +6250,13 @@
         <v>47</v>
       </c>
       <c r="D26" s="46">
-        <v>0</v>
-      </c>
-      <c r="E26" s="103">
-        <v>44870</v>
-      </c>
-      <c r="F26" s="103">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E26" s="100">
+        <v>44872</v>
+      </c>
+      <c r="F26" s="100">
+        <v>44872</v>
       </c>
       <c r="G26" s="79"/>
       <c r="H26" s="79">
@@ -6261,11 +6268,11 @@
       <c r="K26" s="80"/>
       <c r="L26" s="80"/>
       <c r="M26" s="80"/>
-      <c r="N26" s="88"/>
+      <c r="N26" s="80"/>
       <c r="O26" s="80"/>
       <c r="P26" s="80"/>
       <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
+      <c r="R26" s="88"/>
       <c r="S26" s="80"/>
       <c r="T26" s="80"/>
       <c r="U26" s="80"/>
@@ -6322,13 +6329,13 @@
         <v>75</v>
       </c>
       <c r="D27" s="46">
-        <v>0</v>
-      </c>
-      <c r="E27" s="103">
-        <v>44870</v>
-      </c>
-      <c r="F27" s="103">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="100">
+        <v>44874</v>
+      </c>
+      <c r="F27" s="100">
+        <v>44874</v>
       </c>
       <c r="G27" s="79"/>
       <c r="H27" s="79">
@@ -6352,7 +6359,7 @@
       <c r="W27" s="80"/>
       <c r="X27" s="80"/>
       <c r="Y27" s="80"/>
-      <c r="Z27" s="116"/>
+      <c r="Z27" s="103"/>
       <c r="AA27" s="80"/>
       <c r="AB27" s="80"/>
       <c r="AC27" s="80"/>
@@ -6403,32 +6410,32 @@
       <c r="D28" s="67"/>
       <c r="E28" s="68"/>
       <c r="F28" s="69"/>
-      <c r="G28" s="106" t="str">
+      <c r="G28" s="111" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+      <c r="AA28" s="111"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="111"/>
       <c r="AD28" s="57"/>
       <c r="AE28" s="57"/>
       <c r="AF28" s="57"/>
@@ -6476,13 +6483,13 @@
         <v>45</v>
       </c>
       <c r="D29" s="64">
-        <v>0</v>
-      </c>
-      <c r="E29" s="104">
-        <v>44870</v>
-      </c>
-      <c r="F29" s="104">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="101">
+        <v>44872</v>
+      </c>
+      <c r="F29" s="101">
+        <v>44872</v>
       </c>
       <c r="G29" s="79"/>
       <c r="H29" s="79">
@@ -6494,11 +6501,11 @@
       <c r="K29" s="80"/>
       <c r="L29" s="80"/>
       <c r="M29" s="80"/>
-      <c r="N29" s="89"/>
+      <c r="N29" s="80"/>
       <c r="O29" s="80"/>
       <c r="P29" s="80"/>
       <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
+      <c r="R29" s="89"/>
       <c r="S29" s="80"/>
       <c r="T29" s="80"/>
       <c r="U29" s="80"/>
@@ -6554,13 +6561,13 @@
         <v>45</v>
       </c>
       <c r="D30" s="64">
-        <v>0</v>
-      </c>
-      <c r="E30" s="104">
-        <v>44870</v>
-      </c>
-      <c r="F30" s="104">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E30" s="101">
+        <v>44872</v>
+      </c>
+      <c r="F30" s="101">
+        <v>44872</v>
       </c>
       <c r="G30" s="79"/>
       <c r="H30" s="79">
@@ -6570,14 +6577,14 @@
       <c r="I30" s="80"/>
       <c r="J30" s="80"/>
       <c r="K30" s="80"/>
-      <c r="L30" s="89"/>
+      <c r="L30" s="80"/>
       <c r="M30" s="80"/>
       <c r="N30" s="80"/>
       <c r="O30" s="80"/>
       <c r="P30" s="80"/>
       <c r="Q30" s="80"/>
       <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
+      <c r="S30" s="89"/>
       <c r="T30" s="80"/>
       <c r="U30" s="80"/>
       <c r="V30" s="80"/>
@@ -6597,13 +6604,13 @@
         <v>45</v>
       </c>
       <c r="D31" s="64">
-        <v>0</v>
-      </c>
-      <c r="E31" s="104">
-        <v>44870</v>
-      </c>
-      <c r="F31" s="104">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E31" s="101">
+        <v>44872</v>
+      </c>
+      <c r="F31" s="101">
+        <v>44872</v>
       </c>
       <c r="G31" s="79"/>
       <c r="H31" s="79">
@@ -6614,13 +6621,13 @@
       <c r="J31" s="80"/>
       <c r="K31" s="80"/>
       <c r="L31" s="80"/>
-      <c r="M31" s="89"/>
+      <c r="M31" s="80"/>
       <c r="N31" s="80"/>
       <c r="O31" s="80"/>
       <c r="P31" s="80"/>
       <c r="Q31" s="80"/>
       <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
+      <c r="S31" s="89"/>
       <c r="T31" s="80"/>
       <c r="U31" s="80"/>
       <c r="V31" s="80"/>
@@ -6640,13 +6647,13 @@
         <v>45</v>
       </c>
       <c r="D32" s="64">
-        <v>0</v>
-      </c>
-      <c r="E32" s="104">
-        <v>44870</v>
-      </c>
-      <c r="F32" s="104">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E32" s="101">
+        <v>44874</v>
+      </c>
+      <c r="F32" s="101">
+        <v>44874</v>
       </c>
       <c r="G32" s="79"/>
       <c r="H32" s="79">
@@ -6657,7 +6664,7 @@
       <c r="J32" s="80"/>
       <c r="K32" s="80"/>
       <c r="L32" s="80"/>
-      <c r="M32" s="89"/>
+      <c r="M32" s="80"/>
       <c r="N32" s="80"/>
       <c r="O32" s="80"/>
       <c r="P32" s="80"/>
@@ -6669,7 +6676,7 @@
       <c r="V32" s="80"/>
       <c r="W32" s="80"/>
       <c r="X32" s="80"/>
-      <c r="Y32" s="80"/>
+      <c r="Y32" s="89"/>
       <c r="Z32" s="80"/>
       <c r="AA32" s="80"/>
       <c r="AB32" s="80"/>
@@ -6683,13 +6690,13 @@
         <v>47</v>
       </c>
       <c r="D33" s="64">
-        <v>0</v>
-      </c>
-      <c r="E33" s="104">
-        <v>44870</v>
-      </c>
-      <c r="F33" s="104">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E33" s="101">
+        <v>44874</v>
+      </c>
+      <c r="F33" s="101">
+        <v>44874</v>
       </c>
       <c r="G33" s="79"/>
       <c r="H33" s="79"/>
@@ -6698,7 +6705,7 @@
       <c r="K33" s="80"/>
       <c r="L33" s="80"/>
       <c r="M33" s="80"/>
-      <c r="N33" s="88"/>
+      <c r="N33" s="80"/>
       <c r="O33" s="80"/>
       <c r="P33" s="80"/>
       <c r="Q33" s="80"/>
@@ -6709,7 +6716,7 @@
       <c r="V33" s="80"/>
       <c r="W33" s="80"/>
       <c r="X33" s="80"/>
-      <c r="Y33" s="80"/>
+      <c r="Y33" s="88"/>
       <c r="Z33" s="80"/>
       <c r="AA33" s="80"/>
       <c r="AB33" s="80"/>
@@ -6723,13 +6730,13 @@
         <v>45</v>
       </c>
       <c r="D34" s="64">
-        <v>0</v>
-      </c>
-      <c r="E34" s="104">
-        <v>44870</v>
-      </c>
-      <c r="F34" s="104">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="101">
+        <v>44872</v>
+      </c>
+      <c r="F34" s="101">
+        <v>44872</v>
       </c>
       <c r="G34" s="79"/>
       <c r="H34" s="79"/>
@@ -6737,13 +6744,13 @@
       <c r="J34" s="80"/>
       <c r="K34" s="80"/>
       <c r="L34" s="80"/>
-      <c r="M34" s="89"/>
+      <c r="M34" s="80"/>
       <c r="N34" s="80"/>
       <c r="O34" s="80"/>
       <c r="P34" s="80"/>
       <c r="Q34" s="80"/>
       <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
+      <c r="S34" s="89"/>
       <c r="T34" s="80"/>
       <c r="U34" s="80"/>
       <c r="V34" s="80"/>
@@ -6763,13 +6770,13 @@
         <v>75</v>
       </c>
       <c r="D35" s="64">
-        <v>0</v>
-      </c>
-      <c r="E35" s="104">
-        <v>44870</v>
-      </c>
-      <c r="F35" s="104">
-        <v>44870</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="101">
+        <v>44874</v>
+      </c>
+      <c r="F35" s="101">
+        <v>44874</v>
       </c>
       <c r="G35" s="82"/>
       <c r="H35" s="82">
@@ -6782,7 +6789,7 @@
       <c r="L35" s="83"/>
       <c r="M35" s="83"/>
       <c r="N35" s="83"/>
-      <c r="O35" s="118"/>
+      <c r="O35" s="105"/>
       <c r="P35" s="83"/>
       <c r="Q35" s="83"/>
       <c r="R35" s="83"/>
@@ -6793,7 +6800,7 @@
       <c r="W35" s="83"/>
       <c r="X35" s="83"/>
       <c r="Y35" s="83"/>
-      <c r="Z35" s="116"/>
+      <c r="Z35" s="103"/>
       <c r="AA35" s="83"/>
       <c r="AB35" s="83"/>
       <c r="AC35" s="83"/>
@@ -6806,32 +6813,32 @@
       <c r="D36" s="73"/>
       <c r="E36" s="74"/>
       <c r="F36" s="75"/>
-      <c r="G36" s="106" t="str">
+      <c r="G36" s="111" t="str">
         <f t="shared" ref="G36:H46" si="2">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="106"/>
-      <c r="T36" s="106"/>
-      <c r="U36" s="106"/>
-      <c r="V36" s="106"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="106"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="106"/>
-      <c r="AC36" s="106"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="111"/>
+      <c r="AB36" s="111"/>
+      <c r="AC36" s="111"/>
     </row>
     <row r="37" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="87" t="s">
@@ -6840,13 +6847,13 @@
       <c r="C37" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="70">
-        <v>0</v>
-      </c>
-      <c r="E37" s="105">
+      <c r="D37" s="64">
+        <v>1</v>
+      </c>
+      <c r="E37" s="102">
         <v>44870</v>
       </c>
-      <c r="F37" s="105">
+      <c r="F37" s="102">
         <v>44870</v>
       </c>
       <c r="G37" s="79"/>
@@ -6856,8 +6863,8 @@
       <c r="K37" s="79"/>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="100"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="109"/>
       <c r="P37" s="79"/>
       <c r="Q37" s="79"/>
       <c r="R37" s="79"/>
@@ -6880,14 +6887,14 @@
       <c r="C38" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="70">
-        <v>0</v>
-      </c>
-      <c r="E38" s="105">
-        <v>44870</v>
-      </c>
-      <c r="F38" s="105">
-        <v>44870</v>
+      <c r="D38" s="64">
+        <v>1</v>
+      </c>
+      <c r="E38" s="102">
+        <v>44874</v>
+      </c>
+      <c r="F38" s="102">
+        <v>44874</v>
       </c>
       <c r="G38" s="79"/>
       <c r="H38" s="79">
@@ -6900,7 +6907,7 @@
       <c r="L38" s="80"/>
       <c r="M38" s="80"/>
       <c r="N38" s="80"/>
-      <c r="O38" s="88"/>
+      <c r="O38" s="80"/>
       <c r="P38" s="80"/>
       <c r="Q38" s="80"/>
       <c r="R38" s="80"/>
@@ -6911,7 +6918,7 @@
       <c r="W38" s="80"/>
       <c r="X38" s="80"/>
       <c r="Y38" s="80"/>
-      <c r="Z38" s="80"/>
+      <c r="Z38" s="88"/>
       <c r="AA38" s="80"/>
       <c r="AB38" s="80"/>
       <c r="AC38" s="80"/>
@@ -6923,13 +6930,13 @@
       <c r="C39" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="70">
-        <v>0</v>
-      </c>
-      <c r="E39" s="105">
+      <c r="D39" s="64">
+        <v>1</v>
+      </c>
+      <c r="E39" s="102">
         <v>44870</v>
       </c>
-      <c r="F39" s="105">
+      <c r="F39" s="102">
         <v>44870</v>
       </c>
       <c r="G39" s="79"/>
@@ -6969,10 +6976,10 @@
       <c r="D40" s="70">
         <v>1</v>
       </c>
-      <c r="E40" s="105">
+      <c r="E40" s="102">
         <v>44870</v>
       </c>
-      <c r="F40" s="105">
+      <c r="F40" s="102">
         <v>44870</v>
       </c>
       <c r="G40" s="79"/>
@@ -7009,38 +7016,38 @@
       <c r="C41" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="105">
+      <c r="D41" s="64">
+        <v>1</v>
+      </c>
+      <c r="E41" s="102">
         <v>44870</v>
       </c>
-      <c r="F41" s="105">
-        <v>44870</v>
+      <c r="F41" s="102">
+        <v>44874</v>
       </c>
       <c r="G41" s="79"/>
       <c r="H41" s="79">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I41" s="80"/>
       <c r="J41" s="80"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="88"/>
       <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="80"/>
       <c r="P41" s="80"/>
       <c r="Q41" s="80"/>
       <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
+      <c r="S41" s="88"/>
       <c r="T41" s="80"/>
       <c r="U41" s="80"/>
       <c r="V41" s="80"/>
       <c r="W41" s="80"/>
       <c r="X41" s="80"/>
       <c r="Y41" s="80"/>
-      <c r="Z41" s="80"/>
+      <c r="Z41" s="88"/>
       <c r="AA41" s="80"/>
       <c r="AB41" s="80"/>
       <c r="AC41" s="80"/>
@@ -7052,38 +7059,38 @@
       <c r="C42" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="E42" s="105">
+      <c r="D42" s="64">
+        <v>1</v>
+      </c>
+      <c r="E42" s="102">
         <v>44870</v>
       </c>
-      <c r="F42" s="105">
-        <v>44870</v>
+      <c r="F42" s="102">
+        <v>44874</v>
       </c>
       <c r="G42" s="82"/>
       <c r="H42" s="82">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42" s="83"/>
       <c r="J42" s="83"/>
       <c r="K42" s="83"/>
       <c r="L42" s="88"/>
       <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="80"/>
       <c r="P42" s="83"/>
       <c r="Q42" s="83"/>
       <c r="R42" s="83"/>
-      <c r="S42" s="83"/>
+      <c r="S42" s="88"/>
       <c r="T42" s="83"/>
       <c r="U42" s="83"/>
       <c r="V42" s="83"/>
       <c r="W42" s="83"/>
       <c r="X42" s="83"/>
       <c r="Y42" s="83"/>
-      <c r="Z42" s="83"/>
+      <c r="Z42" s="88"/>
       <c r="AA42" s="83"/>
       <c r="AB42" s="83"/>
       <c r="AC42" s="83"/>
@@ -7095,38 +7102,38 @@
       <c r="C43" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="105">
+      <c r="D43" s="64">
+        <v>1</v>
+      </c>
+      <c r="E43" s="102">
         <v>44870</v>
       </c>
-      <c r="F43" s="105">
-        <v>44870</v>
+      <c r="F43" s="102">
+        <v>44874</v>
       </c>
       <c r="G43" s="82"/>
       <c r="H43" s="82">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43" s="83"/>
       <c r="J43" s="83"/>
-      <c r="K43" s="88"/>
+      <c r="K43" s="80"/>
       <c r="L43" s="80"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="88"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="80"/>
       <c r="P43" s="83"/>
       <c r="Q43" s="83"/>
       <c r="R43" s="83"/>
-      <c r="S43" s="83"/>
+      <c r="S43" s="88"/>
       <c r="T43" s="83"/>
       <c r="U43" s="83"/>
       <c r="V43" s="83"/>
       <c r="W43" s="83"/>
       <c r="X43" s="83"/>
       <c r="Y43" s="83"/>
-      <c r="Z43" s="83"/>
+      <c r="Z43" s="88"/>
       <c r="AA43" s="83"/>
       <c r="AB43" s="83"/>
       <c r="AC43" s="83"/>
@@ -7138,13 +7145,13 @@
       <c r="C44" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="70">
-        <v>0</v>
-      </c>
-      <c r="E44" s="105">
+      <c r="D44" s="64">
+        <v>1</v>
+      </c>
+      <c r="E44" s="102">
         <v>44870</v>
       </c>
-      <c r="F44" s="105">
+      <c r="F44" s="102">
         <v>44870</v>
       </c>
       <c r="G44" s="82"/>
@@ -7154,8 +7161,8 @@
       </c>
       <c r="I44" s="83"/>
       <c r="J44" s="83"/>
-      <c r="K44" s="117"/>
-      <c r="L44" s="83"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="103"/>
       <c r="M44" s="80"/>
       <c r="N44" s="83"/>
       <c r="O44" s="80"/>
@@ -7184,10 +7191,10 @@
       <c r="D45" s="70">
         <v>1</v>
       </c>
-      <c r="E45" s="105">
+      <c r="E45" s="102">
         <v>44870</v>
       </c>
-      <c r="F45" s="105">
+      <c r="F45" s="102">
         <v>44870</v>
       </c>
       <c r="G45" s="82"/>
@@ -7199,8 +7206,8 @@
       <c r="J45" s="83"/>
       <c r="K45" s="83"/>
       <c r="L45" s="83"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="83"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="88"/>
       <c r="O45" s="80"/>
       <c r="P45" s="83"/>
       <c r="Q45" s="83"/>
@@ -7224,14 +7231,14 @@
       <c r="C46" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="70">
-        <v>0.75</v>
-      </c>
-      <c r="E46" s="105">
-        <v>44870</v>
-      </c>
-      <c r="F46" s="105">
-        <v>44870</v>
+      <c r="D46" s="64">
+        <v>1</v>
+      </c>
+      <c r="E46" s="102">
+        <v>44874</v>
+      </c>
+      <c r="F46" s="102">
+        <v>44874</v>
       </c>
       <c r="G46" s="82"/>
       <c r="H46" s="82">
@@ -7242,7 +7249,7 @@
       <c r="J46" s="83"/>
       <c r="K46" s="83"/>
       <c r="L46" s="83"/>
-      <c r="M46" s="89"/>
+      <c r="M46" s="80"/>
       <c r="N46" s="83"/>
       <c r="O46" s="80"/>
       <c r="P46" s="83"/>
@@ -7255,7 +7262,7 @@
       <c r="W46" s="83"/>
       <c r="X46" s="83"/>
       <c r="Y46" s="83"/>
-      <c r="Z46" s="83"/>
+      <c r="Z46" s="94"/>
       <c r="AA46" s="83"/>
       <c r="AB46" s="83"/>
       <c r="AC46" s="83"/>
@@ -7282,7 +7289,7 @@
     <mergeCell ref="G28:AC28"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D27">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7296,20 +7303,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL7 AD24:BL24 AD20:BL20 I16:BL19 AD15:BL15 I9:BL14 AD8:BL8 AD28:BL29 I21:BL23 I25:BL27">
-    <cfRule type="expression" dxfId="20" priority="57">
+    <cfRule type="expression" dxfId="20" priority="63">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL7 AD24:BL24 AD20:BL20 I16:BL19 AD15:BL15 I9:BL14 AD8:BL8 AD28:BL29 I21:BL23 I25:BL27">
-    <cfRule type="expression" dxfId="19" priority="51">
+    <cfRule type="expression" dxfId="19" priority="57">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="58" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D35">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7323,20 +7330,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:AC35">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="17" priority="30">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:AC35">
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="16" priority="28">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D42">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D40 D36">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7350,74 +7357,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:AC42">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="14" priority="26">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:AC42">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="25" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03CF5A02-E9DA-4345-B46C-3A375637D83D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I43:AC43">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="11" priority="22">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:AC43">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DD05C77B-79C4-42EB-8A77-3F063275978D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I44:AC44">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:AC44">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="17" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7431,16 +7410,99 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:AC45">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:AC45">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="13" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:AC46">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:AC46">
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D39">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5261B9A8-FBB4-4D0E-81CD-DB5722CAD978}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{41CEE2C4-B0F9-4291-A2BF-1CF7CB24675C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B3DE7B8B-22D7-4E47-A333-2D68BCD3D251}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{002C13D8-D6AF-4DD7-9605-2155E69225C4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DA85DD13-C004-42AF-9C1B-AA0272085D55}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
@@ -7452,22 +7514,9 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DE43F16F-600F-4F42-B7AB-301AD8D8A9B7}</x14:id>
+          <x14:id>{E0708012-D6B7-414D-84BA-10CF4BCCABDA}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:AC46">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:AC46">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -7526,37 +7575,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36:D42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03CF5A02-E9DA-4345-B46C-3A375637D83D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DD05C77B-79C4-42EB-8A77-3F063275978D}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D44</xm:sqref>
+          <xm:sqref>D40 D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C90476C-E051-4A2A-A3DE-AA916DE65BAA}">
@@ -7574,7 +7593,82 @@
           <xm:sqref>D45</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DE43F16F-600F-4F42-B7AB-301AD8D8A9B7}">
+          <x14:cfRule type="dataBar" id="{5261B9A8-FBB4-4D0E-81CD-DB5722CAD978}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D37:D39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{41CEE2C4-B0F9-4291-A2BF-1CF7CB24675C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B3DE7B8B-22D7-4E47-A333-2D68BCD3D251}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{002C13D8-D6AF-4DD7-9605-2155E69225C4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DA85DD13-C004-42AF-9C1B-AA0272085D55}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E0708012-D6B7-414D-84BA-10CF4BCCABDA}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
